--- a/src/main/DataFiles/userData.xlsx
+++ b/src/main/DataFiles/userData.xlsx
@@ -58,7 +58,7 @@
     <t>offerTime</t>
   </si>
   <si>
-    <t>dummy test</t>
+    <t>dummyTest</t>
   </si>
   <si>
     <t>250 Main Road</t>
@@ -88,7 +88,7 @@
     <t>RON</t>
   </si>
   <si>
-    <t>Creating a Woodstock location</t>
+    <t>CreateWoodstockLocation</t>
   </si>
   <si>
     <t>251 Main Road</t>
@@ -100,7 +100,7 @@
     <t>WOOD</t>
   </si>
   <si>
-    <t>Creating a Mowbray location</t>
+    <t>CreateMowbrayLocation</t>
   </si>
   <si>
     <t>252 Main Road</t>
@@ -118,10 +118,10 @@
     <t>253 Main Road</t>
   </si>
   <si>
-    <t>printTestData</t>
-  </si>
-  <si>
-    <t>Creating options</t>
+    <t>CreateLocationWithOutStreetName</t>
+  </si>
+  <si>
+    <t>CreateRondeboschLocation</t>
   </si>
   <si>
     <t>DELIVERY</t>
